--- a/strength(number data2).csv.xlsx
+++ b/strength(number data2).csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yekyeong.noh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651503B6-5FBF-4B19-A1A4-9E9F0B1DF963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01F6708-FBEA-4168-86EF-5BEF7B5A1863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E6D8199-FDE3-40CE-BC6A-00168569B874}"/>
   </bookViews>
@@ -38,10 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
-    <t>Spec. No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A106</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nominal Composition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Carbon Steel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,23 +86,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Min. Yield Strength, MPa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min. Tensile Strength, MPa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min. Temp.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max. Use Temp.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type, Grade</t>
+    <t>"Type, Grade"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Min. Tensile Strength, Mpa"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Min. Yield Strength, Mpa"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Spec. No."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Max. Use Temp."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Nominal Composition"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Min. Temp."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,15 +521,15 @@
   <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
@@ -540,25 +540,25 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2">
         <v>40</v>
@@ -659,16 +659,16 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>414</v>
@@ -749,42 +749,42 @@
         <v>6.89</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>-255</v>
@@ -897,13 +897,13 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>-255</v>
@@ -1016,13 +1016,13 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>-255</v>
@@ -1135,13 +1135,13 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>-255</v>
